--- a/biology/Botanique/Codiaeum_peltatum/Codiaeum_peltatum.xlsx
+++ b/biology/Botanique/Codiaeum_peltatum/Codiaeum_peltatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Codiaeum peltatum est une espèce de plantes à fleurs de la famille des Euphorbiaceae.
 C'est un arbrisseau indigène en Nouvelle-Calédonie. Il est courant et fait partie du même genre Codiaeum que les « crotons » (Codiaeum variegatum) cultivés dans les jardins ou comme plantes d'intérieur.
@@ -514,18 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-C’est un arbuste, parfois un arbre, qui n’a pas de forme particulière. Il possède de nombreuses branches et il peut être touffu. Son latex est clair.
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un arbuste, parfois un arbre, qui n’a pas de forme particulière. Il possède de nombreuses branches et il peut être touffu. Son latex est clair.
 Il atteint généralement 6 à 7 mètres de hauteur mais peut mesurer jusqu’à 12 mètres.
-Feuilles
-Les feuilles adultes sont très différentes des jeunes feuilles. Les jeunes feuilles sont longues (20 cm), fines (1 à 2 cm), ont une nervure marron foncé et sont plus ou moins panachées de jaune et blanc. Les feuilles adultes sont beaucoup plus larges (5 à 6 cm) et notamment aux extrémités, leur nervure est vert tendre et elles sont d’une couleur moins soutenue que chez les jeunes feuilles.
-Le pétiole des feuilles est petit et a une forme coudée ; il est légèrement renflé à sa base. Les feuilles sont placées tout autour du tronc de manière rayonnante.
-Fleurs
-La plante possède soit des fleurs femelles soit des fleurs mâles. Les fleurs femelles sont très petites (3 mm) et sont portées sur de grands épis qui pendent. Les fleurs mâles sont plus grandes (2 cm) et sont disposées le long de longues tiges.
-Fruits
-Les fruits possèdent trois coques dures d’un centimètre de long. Verts, ils deviennent marron à maturité.
-Écorce
-L'écorce est claire, tachetée et lisse.
 </t>
         </is>
       </c>
@@ -551,12 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Reproduction</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La floraison et la fructification ont lieu le plus souvent d’octobre à février, mais il n’est pas rare d’observer des fleurs et des fruits à d’autres périodes de l’année. La germination est facile.
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles adultes sont très différentes des jeunes feuilles. Les jeunes feuilles sont longues (20 cm), fines (1 à 2 cm), ont une nervure marron foncé et sont plus ou moins panachées de jaune et blanc. Les feuilles adultes sont beaucoup plus larges (5 à 6 cm) et notamment aux extrémités, leur nervure est vert tendre et elles sont d’une couleur moins soutenue que chez les jeunes feuilles.
+Le pétiole des feuilles est petit et a une forme coudée ; il est légèrement renflé à sa base. Les feuilles sont placées tout autour du tronc de manière rayonnante.
 </t>
         </is>
       </c>
@@ -582,10 +597,156 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante possède soit des fleurs femelles soit des fleurs mâles. Les fleurs femelles sont très petites (3 mm) et sont portées sur de grands épis qui pendent. Les fleurs mâles sont plus grandes (2 cm) et sont disposées le long de longues tiges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Codiaeum_peltatum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Codiaeum_peltatum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits possèdent trois coques dures d’un centimètre de long. Verts, ils deviennent marron à maturité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Codiaeum_peltatum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Codiaeum_peltatum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Écorce</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce est claire, tachetée et lisse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Codiaeum_peltatum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Codiaeum_peltatum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison et la fructification ont lieu le plus souvent d’octobre à février, mais il n’est pas rare d’observer des fleurs et des fruits à d’autres périodes de l’année. La germination est facile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Codiaeum_peltatum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Codiaeum_peltatum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Place dans la forêt sèche de Nouvelle-Calédonie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante a été sélectionnée comme plante ornementale, pour son feuillage et sa vitesse de croissance rapide.
 Les cerfs et le bétail ne la mangent pas, c’est pourquoi on la trouve facilement dans la nature. Elle est très répandue dans la forêt sèche et notamment dans les sous bois un peu plus humides. Elle pousse également dans les îles Loyauté.
